--- a/Data/NetSuiteTestData_SplitInvoice.xlsx
+++ b/Data/NetSuiteTestData_SplitInvoice.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="674">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -2003,13 +2003,46 @@
     <t>1234546989</t>
   </si>
   <si>
-    <t>SB1 Dev1 - iHeartMedia</t>
-  </si>
-  <si>
     <t>krishna@iheartmedia.com</t>
   </si>
   <si>
     <t>iHeartmedia1!</t>
+  </si>
+  <si>
+    <t>TC_NST_6700</t>
+  </si>
+  <si>
+    <t>krishnagundavarapu@iheartmedia.com</t>
+  </si>
+  <si>
+    <t>SB5 20.1 Upgrade - iHeartmedia  -  Administrator</t>
+  </si>
+  <si>
+    <t>8215106224</t>
+  </si>
+  <si>
+    <t>TC_NST_6714</t>
+  </si>
+  <si>
+    <t>8214957978</t>
+  </si>
+  <si>
+    <t>TC_NST_6697</t>
+  </si>
+  <si>
+    <t>TC_NST_6699</t>
+  </si>
+  <si>
+    <t>8214958688</t>
+  </si>
+  <si>
+    <t>TC_NST_6698</t>
+  </si>
+  <si>
+    <t>8214794203</t>
+  </si>
+  <si>
+    <t>8215199063</t>
   </si>
 </sst>
 </file>
@@ -2396,10 +2429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,28 +2511,183 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>662</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>662</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3" t="s">
+        <v>657</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>663</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>666</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" t="s">
+        <v>657</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>663</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>668</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C5" t="s">
+        <v>657</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>669</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" t="s">
+        <v>657</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>663</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>671</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="C7" t="s">
+        <v>657</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>663</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E3" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7"/>
+    <hyperlink ref="D5" r:id="rId8"/>
+    <hyperlink ref="E6" r:id="rId9"/>
+    <hyperlink ref="D6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Data/NetSuiteTestData_SplitInvoice.xlsx
+++ b/Data/NetSuiteTestData_SplitInvoice.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="663">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -2003,46 +2003,13 @@
     <t>1234546989</t>
   </si>
   <si>
+    <t>SB1 Dev1 - iHeartMedia</t>
+  </si>
+  <si>
     <t>krishna@iheartmedia.com</t>
   </si>
   <si>
     <t>iHeartmedia1!</t>
-  </si>
-  <si>
-    <t>TC_NST_6700</t>
-  </si>
-  <si>
-    <t>krishnagundavarapu@iheartmedia.com</t>
-  </si>
-  <si>
-    <t>SB5 20.1 Upgrade - iHeartmedia  -  Administrator</t>
-  </si>
-  <si>
-    <t>8215106224</t>
-  </si>
-  <si>
-    <t>TC_NST_6714</t>
-  </si>
-  <si>
-    <t>8214957978</t>
-  </si>
-  <si>
-    <t>TC_NST_6697</t>
-  </si>
-  <si>
-    <t>TC_NST_6699</t>
-  </si>
-  <si>
-    <t>8214958688</t>
-  </si>
-  <si>
-    <t>TC_NST_6698</t>
-  </si>
-  <si>
-    <t>8214794203</t>
-  </si>
-  <si>
-    <t>8215199063</t>
   </si>
 </sst>
 </file>
@@ -2429,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2511,183 +2478,28 @@
         <v>3</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>660</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>664</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>652</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>659</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>662</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C3" t="s">
-        <v>657</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>663</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>666</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C4" t="s">
-        <v>657</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>663</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>668</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C5" t="s">
-        <v>657</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>663</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>669</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C6" t="s">
-        <v>657</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>663</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>671</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="C7" t="s">
-        <v>657</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>663</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>673</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="D4" r:id="rId5"/>
-    <hyperlink ref="E3" r:id="rId6"/>
-    <hyperlink ref="E5" r:id="rId7"/>
-    <hyperlink ref="D5" r:id="rId8"/>
-    <hyperlink ref="E6" r:id="rId9"/>
-    <hyperlink ref="D6" r:id="rId10"/>
-    <hyperlink ref="D7" r:id="rId11"/>
-    <hyperlink ref="E7" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Data/NetSuiteTestData_SplitInvoice.xlsx
+++ b/Data/NetSuiteTestData_SplitInvoice.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="682">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -1997,26 +1997,83 @@
     <t>Split Invoice</t>
   </si>
   <si>
-    <t>TC_NS_6701</t>
-  </si>
-  <si>
-    <t>1234546989</t>
-  </si>
-  <si>
-    <t>SB1 Dev1 - iHeartMedia</t>
-  </si>
-  <si>
-    <t>krishna@iheartmedia.com</t>
-  </si>
-  <si>
-    <t>iHeartmedia1!</t>
+    <t>TestFlow</t>
+  </si>
+  <si>
+    <t>NS-6715</t>
+  </si>
+  <si>
+    <t>SB5 20.1 Upgrade - iHeartmedia  -  Administrator</t>
+  </si>
+  <si>
+    <t>NS-6714</t>
+  </si>
+  <si>
+    <t>Split Invoice - Split by Spot and Misc.</t>
+  </si>
+  <si>
+    <t>NS-6701</t>
+  </si>
+  <si>
+    <t>Split Invoice - Invalid Invoice</t>
+  </si>
+  <si>
+    <t>3011367055</t>
+  </si>
+  <si>
+    <t>NS-6700</t>
+  </si>
+  <si>
+    <t>Split Invoice - Split Station</t>
+  </si>
+  <si>
+    <t>NS-6697</t>
+  </si>
+  <si>
+    <t>Split Invoice by Market Type</t>
+  </si>
+  <si>
+    <t>NS-6698</t>
+  </si>
+  <si>
+    <t>Split Invoice by Product Type</t>
+  </si>
+  <si>
+    <t>NS-6699</t>
+  </si>
+  <si>
+    <t>Split Invoice by ISCI</t>
+  </si>
+  <si>
+    <t>PrashanthVanke@iheartmedia.com</t>
+  </si>
+  <si>
+    <t>Arsin*1234</t>
+  </si>
+  <si>
+    <t>6315352199</t>
+  </si>
+  <si>
+    <t>2114164369</t>
+  </si>
+  <si>
+    <t>3815347817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4115292149 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3315347699 </t>
+  </si>
+  <si>
+    <t>3015283907</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2032,6 +2089,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2041,7 +2104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2064,17 +2127,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2088,9 +2140,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2396,31 +2448,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="51" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="40.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
-    <col min="13" max="13" width="27.28515625" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="51" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="47.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5703125" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="27.28515625" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2428,78 +2481,293 @@
         <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>653</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="D3" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>659</v>
-      </c>
+      <c r="K3" s="7" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H13" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="E5" r:id="rId4"/>
+    <hyperlink ref="E6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="E8" r:id="rId7"/>
+    <hyperlink ref="F2" r:id="rId8"/>
+    <hyperlink ref="F3:F8" r:id="rId9" display="PrashanthVanke@iheartmedia.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
